--- a/wrong_questions.xlsx
+++ b/wrong_questions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -458,7 +458,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>crop_IMG_1374.JPG_7306_0.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>crop_IMG_1374.JPG_2014_1.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>crop_IMG_1374.JPG_3938_2.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
